--- a/factores-de-emision_v1_mensual.xlsx
+++ b/factores-de-emision_v1_mensual.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,6 +5624,28 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.276</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/factores-de-emision_v1_mensual.xlsx
+++ b/factores-de-emision_v1_mensual.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5646,6 +5646,28 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
